--- a/06_R 자료/inData/exam.xlsx
+++ b/06_R 자료/inData/exam.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bigdata\src\06_R\inData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="28040" windowHeight="13020" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="28035" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,27 +37,11 @@
     <t>science</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kim</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Park</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -169,7 +148,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -204,7 +183,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -415,13 +394,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection sqref="A1:E4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,7 +415,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -455,7 +432,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -472,7 +449,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -489,7 +466,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -506,7 +483,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -523,7 +500,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -540,7 +517,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -557,7 +534,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -574,7 +551,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -591,7 +568,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -608,7 +585,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -625,7 +602,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -642,7 +619,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -659,7 +636,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -676,7 +653,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -693,7 +670,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -710,7 +687,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -727,7 +704,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -744,7 +721,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -761,7 +738,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -786,83 +763,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1">
-        <v>50</v>
-      </c>
-      <c r="D2" s="1">
-        <v>98</v>
-      </c>
-      <c r="E2" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1">
-        <v>60</v>
-      </c>
-      <c r="D3" s="1">
-        <v>97</v>
-      </c>
-      <c r="E3" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1">
-        <v>45</v>
-      </c>
-      <c r="D4" s="1">
-        <v>86</v>
-      </c>
-      <c r="E4" s="1">
-        <v>78</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -874,7 +780,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
